--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladf\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C22BF5-E462-4779-9E43-3BD010E60A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97B49BB-E045-4783-9829-C70302EB23F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -152,6 +152,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,7 +442,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,120 +452,120 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
